--- a/tables/list_tables.xlsx
+++ b/tables/list_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corentin Gosling\drive_gmail\Recherche\es.utils\web\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA562B0-B1D0-4CA9-916E-5CA8AC5859CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED30941-7443-40D5-8AEE-F58EA888F364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="8" activeTab="18" xr2:uid="{3A80436A-EBC8-4660-8C38-C3E7D350F51B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="8" activeTab="16" xr2:uid="{3A80436A-EBC8-4660-8C38-C3E7D350F51B}"/>
   </bookViews>
   <sheets>
     <sheet name="cohen_d" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="120">
   <si>
     <t>cohen_d</t>
   </si>
@@ -347,18 +347,6 @@
   </si>
   <si>
     <t>ancova_md_ci_lo &amp; ancova_md_ci_up</t>
-  </si>
-  <si>
-    <t>paired_f</t>
-  </si>
-  <si>
-    <t>paired_f_pval</t>
-  </si>
-  <si>
-    <t>paired_t</t>
-  </si>
-  <si>
-    <t>paired_t_pval</t>
   </si>
   <si>
     <t>Any</t>
@@ -415,6 +403,24 @@
   <si>
     <t xml:space="preserve">mean_change_exp &amp; mean_change_nexp &amp; 
 mean_change_sd_exp &amp; mean_change_sd_nexp	</t>
+  </si>
+  <si>
+    <t>mean_sd_pooled</t>
+  </si>
+  <si>
+    <t>SMD, VAR</t>
+  </si>
+  <si>
+    <t>paired_f_exp &amp; paired_f_nexp</t>
+  </si>
+  <si>
+    <t>paired_f_pval_exp &amp; paired_f_pval_nexp</t>
+  </si>
+  <si>
+    <t>paired_t_exp &amp; paired_t_nexp</t>
+  </si>
+  <si>
+    <t>paired_t_pval_exp &amp; paired_t_pval_nexp</t>
   </si>
 </sst>
 </file>
@@ -1910,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E9A49B-B1E9-4925-829B-840C479516AE}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1924,27 +1930,27 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
         <v>103</v>
-      </c>
-      <c r="D1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1961,10 +1967,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -2006,27 +2012,27 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -2043,10 +2049,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -2070,7 +2076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945898EC-5CB7-4517-875A-C8893F1E84A4}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -2214,18 +2220,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C8F809-D4BC-4362-9C50-BC1AB60DE240}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2245,10 +2253,13 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2261,11 +2272,11 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2278,11 +2289,11 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2295,7 +2306,24 @@
       <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2337,7 +2365,7 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -2686,19 +2714,19 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="H1" t="s">
         <v>28</v>
@@ -2709,7 +2737,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -2729,7 +2757,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -2749,7 +2777,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -2806,7 +2834,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2822,16 +2850,16 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s">
         <v>28</v>

--- a/tables/list_tables.xlsx
+++ b/tables/list_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corentin Gosling\drive_gmail\Recherche\es.utils\web\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\drive_gmail\Recherche\metaConvert\web\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED30941-7443-40D5-8AEE-F58EA888F364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D868309-89D8-4C93-8020-E7CA6C697063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="8" activeTab="16" xr2:uid="{3A80436A-EBC8-4660-8C38-C3E7D350F51B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="9" activeTab="20" xr2:uid="{3A80436A-EBC8-4660-8C38-C3E7D350F51B}"/>
   </bookViews>
   <sheets>
     <sheet name="cohen_d" sheetId="1" r:id="rId1"/>
@@ -479,9 +479,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -519,7 +519,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -625,7 +625,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -767,7 +767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1916,7 +1916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E9A49B-B1E9-4925-829B-840C479516AE}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -2383,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E311BB22-7D22-416E-939A-951F479DB280}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
